--- a/DGEA/Pheno_RNAseq.xlsx
+++ b/DGEA/Pheno_RNAseq.xlsx
@@ -293,7 +293,7 @@
     <t xml:space="preserve">GSM5833650</t>
   </si>
   <si>
-    <t xml:space="preserve">non_tumor</t>
+    <t xml:space="preserve">normal</t>
   </si>
   <si>
     <t xml:space="preserve">GSM5833651</t>
